--- a/teaching/traditional_assets/database/data/guernsey/guernsey_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_metals_mining.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.9557426011403748</v>
+        <v>-2.285294117647059</v>
       </c>
       <c r="H2">
-        <v>-0.9557426011403748</v>
+        <v>-2.285294117647059</v>
       </c>
       <c r="I2">
-        <v>-1.17462948503812</v>
+        <v>-2.649999999999999</v>
       </c>
       <c r="J2">
-        <v>-1.17462948503812</v>
+        <v>-2.649999999999999</v>
       </c>
       <c r="K2">
-        <v>-3.02</v>
+        <v>-9.27</v>
       </c>
       <c r="L2">
-        <v>-0.819983708932935</v>
+        <v>-2.726470588235294</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.656</v>
+        <v>3.974</v>
       </c>
       <c r="V2">
-        <v>0.05978858350951374</v>
+        <v>0.03696744186046512</v>
       </c>
       <c r="W2">
-        <v>-0.08306010928961749</v>
+        <v>-0.4235560588901472</v>
       </c>
       <c r="X2">
-        <v>0.09332098312246818</v>
+        <v>0.04868667249302855</v>
       </c>
       <c r="Y2">
-        <v>-0.1763810924120857</v>
+        <v>-0.4722427313831758</v>
       </c>
       <c r="Z2">
-        <v>0.3650943993603878</v>
+        <v>0.1369918207824651</v>
       </c>
       <c r="AA2">
-        <v>0.04817275747508305</v>
+        <v>-0.1351610429447853</v>
       </c>
       <c r="AB2">
-        <v>0.09332098312246818</v>
+        <v>0.04853708639830287</v>
       </c>
       <c r="AC2">
-        <v>-0.04514822564738513</v>
+        <v>-0.1855235870821721</v>
       </c>
       <c r="AD2">
-        <v>0.424</v>
+        <v>3.91</v>
       </c>
       <c r="AE2">
-        <v>0.4458019669769808</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.8698019669769808</v>
+        <v>3.91</v>
       </c>
       <c r="AG2">
-        <v>-4.786198033023019</v>
+        <v>-0.0640000000000005</v>
       </c>
       <c r="AH2">
-        <v>0.009110754909472269</v>
+        <v>0.03509559285521946</v>
       </c>
       <c r="AI2">
-        <v>0.02813181338351913</v>
+        <v>0.1100726310455492</v>
       </c>
       <c r="AJ2">
-        <v>-0.05329022854174265</v>
+        <v>-0.0005957034885885597</v>
       </c>
       <c r="AK2">
-        <v>-0.1894563413543533</v>
+        <v>-0.002028654748320036</v>
       </c>
       <c r="AL2">
-        <v>0.018</v>
+        <v>0.138</v>
       </c>
       <c r="AM2">
-        <v>-0.007000000000000003</v>
+        <v>0.138</v>
       </c>
       <c r="AN2">
-        <v>-0.1106471816283925</v>
+        <v>-0.4671445639187574</v>
       </c>
       <c r="AO2">
-        <v>-240.6111111111111</v>
+        <v>-65.28985507246377</v>
       </c>
       <c r="AP2">
-        <v>1.249007837427719</v>
+        <v>0.007646356033452866</v>
       </c>
       <c r="AQ2">
-        <v>618.7142857142856</v>
+        <v>-65.28985507246377</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-2.82</v>
+        <v>-2.65</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,31 +740,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.876</v>
+        <v>0.098</v>
       </c>
       <c r="V3">
-        <v>0.07239669421487603</v>
+        <v>0.002824207492795389</v>
       </c>
       <c r="W3">
-        <v>-1.220779220779221</v>
+        <v>-4.26731078904992</v>
       </c>
       <c r="X3">
-        <v>0.09332098312246818</v>
+        <v>0.04842924326104797</v>
       </c>
       <c r="Y3">
-        <v>-1.314100203901689</v>
+        <v>-4.315740032310968</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>4.492063492063493</v>
+        <v>10.3921568627451</v>
       </c>
       <c r="AB3">
-        <v>0.09332098312246818</v>
+        <v>0.04842924326104797</v>
       </c>
       <c r="AC3">
-        <v>4.398742508941025</v>
+        <v>10.34372761948405</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -776,34 +776,31 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.876</v>
+        <v>-0.098</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>-0.07804704205274411</v>
+        <v>-0.002832206230853708</v>
       </c>
       <c r="AK3">
-        <v>3.408560311284047</v>
+        <v>0.1863117870722434</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>-0</v>
       </c>
       <c r="AP3">
-        <v>0.3128571428571429</v>
-      </c>
-      <c r="AQ3">
-        <v>707.5</v>
+        <v>0.03712121212121212</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +811,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ferro-Alloy Resources Limited (LSE:FAR)</t>
+          <t>AfriTin Mining Limited (AIM:ATM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -823,22 +820,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.3841961852861036</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="H4">
-        <v>0.3841961852861036</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="I4">
-        <v>0.007901907356948229</v>
+        <v>-1.831168831168831</v>
       </c>
       <c r="J4">
-        <v>0.007901907356948229</v>
+        <v>-1.831168831168831</v>
       </c>
       <c r="K4">
-        <v>1.32</v>
+        <v>-2.88</v>
       </c>
       <c r="L4">
-        <v>0.3596730245231608</v>
+        <v>-1.87012987012987</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -847,7 +844,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -856,73 +853,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.62</v>
+        <v>3.45</v>
       </c>
       <c r="V4">
-        <v>0.08105263157894738</v>
+        <v>0.1268382352941177</v>
       </c>
       <c r="W4">
-        <v>1.448957189901207</v>
+        <v>-0.1398058252427184</v>
       </c>
       <c r="X4">
-        <v>0.09332098312246818</v>
+        <v>0.05362249944385618</v>
       </c>
       <c r="Y4">
-        <v>1.355636206778739</v>
+        <v>-0.1934283246865746</v>
       </c>
       <c r="Z4">
-        <v>6.096345514950165</v>
+        <v>0.07381134969325154</v>
       </c>
       <c r="AA4">
-        <v>0.04817275747508305</v>
+        <v>-0.1351610429447853</v>
       </c>
       <c r="AB4">
-        <v>0.09332098312246818</v>
+        <v>0.05036254413738683</v>
       </c>
       <c r="AC4">
-        <v>-0.04514822564738513</v>
+        <v>-0.1855235870821721</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="AG4">
-        <v>-4.62</v>
+        <v>0.1599999999999997</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.1171697500811425</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.1187109503452811</v>
       </c>
       <c r="AJ4">
-        <v>-0.08820160366552118</v>
+        <v>0.005847953216374258</v>
       </c>
       <c r="AK4">
-        <v>-1.097387173396675</v>
+        <v>0.005934718100890197</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>-1.388461538461538</v>
+      </c>
+      <c r="AO4">
+        <v>-22.03125</v>
       </c>
       <c r="AP4">
-        <v>-15.19736842105263</v>
+        <v>-0.06153846153846142</v>
+      </c>
+      <c r="AQ4">
+        <v>-22.03125</v>
       </c>
     </row>
     <row r="5">
@@ -933,7 +936,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AfriTin Mining Limited (AIM:ATM)</t>
+          <t>Ferro-Alloy Resources Limited (LSE:FAR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -942,22 +945,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-106.9230769230769</v>
+        <v>-1.473118279569892</v>
       </c>
       <c r="H5">
-        <v>-106.9230769230769</v>
+        <v>-1.473118279569892</v>
       </c>
       <c r="I5">
-        <v>-117.3200302611843</v>
+        <v>-1.903225806451613</v>
       </c>
       <c r="J5">
-        <v>-117.3200302611843</v>
+        <v>-1.903225806451613</v>
       </c>
       <c r="K5">
-        <v>-1.52</v>
+        <v>-3.74</v>
       </c>
       <c r="L5">
-        <v>-116.9230769230769</v>
+        <v>-2.010752688172043</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -981,73 +984,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.16</v>
+        <v>0.426</v>
       </c>
       <c r="V5">
-        <v>0.006274509803921568</v>
+        <v>0.009342105263157895</v>
       </c>
       <c r="W5">
-        <v>-0.08306010928961749</v>
+        <v>-0.4235560588901472</v>
       </c>
       <c r="X5">
-        <v>0.09584924104067173</v>
+        <v>0.04868667249302855</v>
       </c>
       <c r="Y5">
-        <v>-0.1789093503302892</v>
+        <v>-0.4722427313831758</v>
       </c>
       <c r="Z5">
-        <v>0.001285118079855505</v>
+        <v>0.4418052256532067</v>
       </c>
       <c r="AA5">
-        <v>-0.1507700920178429</v>
+        <v>-0.8408551068883611</v>
       </c>
       <c r="AB5">
-        <v>0.09438147220952885</v>
+        <v>0.04853708639830287</v>
       </c>
       <c r="AC5">
-        <v>-0.2451515642273718</v>
+        <v>-0.889392193286664</v>
       </c>
       <c r="AD5">
-        <v>0.424</v>
+        <v>0.3</v>
       </c>
       <c r="AE5">
-        <v>0.4458019669769808</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.8698019669769808</v>
+        <v>0.3</v>
       </c>
       <c r="AG5">
-        <v>0.7098019669769807</v>
+        <v>-0.126</v>
       </c>
       <c r="AH5">
-        <v>0.03298477432884166</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="AI5">
-        <v>0.04051280809738422</v>
+        <v>0.05415162454873646</v>
       </c>
       <c r="AJ5">
-        <v>0.02708154635701922</v>
+        <v>-0.002770814091568808</v>
       </c>
       <c r="AK5">
-        <v>0.03330870779920597</v>
+        <v>-0.02463824794681267</v>
       </c>
       <c r="AL5">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="AM5">
-        <v>-0.003000000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="AN5">
-        <v>-0.3173652694610778</v>
+        <v>-0.09584664536741214</v>
       </c>
       <c r="AO5">
-        <v>-85.00000000000001</v>
+        <v>-354</v>
       </c>
       <c r="AP5">
-        <v>-0.5312888974378599</v>
+        <v>0.0402555910543131</v>
       </c>
       <c r="AQ5">
-        <v>509.9999999999995</v>
+        <v>-354</v>
       </c>
     </row>
   </sheetData>
